--- a/Libraries/Vehicle/Linkage/Decoupled_DW/sm_car_data_Linkage_DW_Decoupled_noSteer.xlsx
+++ b/Libraries/Vehicle/Linkage/Decoupled_DW/sm_car_data_Linkage_DW_Decoupled_noSteer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\ssvt\Libraries\Vehicle\Linkage\DW_Decoupled\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\Decoupled_DW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5817757F-D9AF-4C93-AEA9-E4B381AAA42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392DAACC-C567-4315-BCF1-BBEF7150C709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2184" yWindow="2184" windowWidth="20460" windowHeight="11508" tabRatio="774" xr2:uid="{48D06346-6904-4E22-A3AD-44252B9780B0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="774" xr2:uid="{48D06346-6904-4E22-A3AD-44252B9780B0}"/>
   </bookViews>
   <sheets>
     <sheet name="DWDecoupled_Achilles_r" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
   <si>
     <t>Units</t>
   </si>
@@ -178,6 +178,15 @@
   </si>
   <si>
     <t>DWDecoupledNoSteer_Achilles_r</t>
+  </si>
+  <si>
+    <t>Upper Arm to Subframe</t>
+  </si>
+  <si>
+    <t>Rigid_1Rev</t>
+  </si>
+  <si>
+    <t>Lower Arm to Subframe</t>
   </si>
 </sst>
 </file>
@@ -263,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -276,9 +285,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -297,73 +305,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -399,9 +353,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -439,7 +393,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -545,7 +499,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -687,7 +641,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -698,15 +652,15 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="14" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -741,11 +695,10 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -755,25 +708,23 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -788,13 +739,13 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="6">
         <v>6.6239999999999993E-2</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="6">
         <v>0.16783000000000001</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="6">
         <v>0.11957</v>
       </c>
     </row>
@@ -807,13 +758,13 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="6">
         <v>-0.11</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="6">
         <v>0.18820000000000001</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="6">
         <v>0.11957</v>
       </c>
     </row>
@@ -826,14 +777,14 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="6">
         <f>-0.008</f>
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="6">
         <v>0.58015000000000005</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="6">
         <v>0.15789</v>
       </c>
     </row>
@@ -846,9 +797,9 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6">
         <v>2.9028299999999998</v>
       </c>
     </row>
@@ -863,13 +814,13 @@
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="6">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="6">
         <v>0.25600000000000001</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="6">
         <v>0.24857000000000001</v>
       </c>
     </row>
@@ -882,13 +833,13 @@
       <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="6">
         <v>-0.12769</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="6">
         <v>0.26199</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="6">
         <v>0.22857</v>
       </c>
     </row>
@@ -901,14 +852,14 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="6">
         <f>-0.03</f>
         <v>-0.03</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="6">
         <v>0.56625999999999999</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="6">
         <v>0.31677</v>
       </c>
     </row>
@@ -921,9 +872,9 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
@@ -939,13 +890,13 @@
       <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="6">
         <v>-1.4279999999999999E-2</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="6">
         <v>0.58972999999999998</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="6">
         <v>0.22513</v>
       </c>
     </row>
@@ -958,13 +909,13 @@
       <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>0</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="16">
         <v>0.61899999999999999</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>0.23322999999999999</v>
       </c>
     </row>
@@ -977,9 +928,9 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6">
         <v>7.0371699999999997</v>
       </c>
     </row>
@@ -992,13 +943,13 @@
       <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>18</v>
@@ -1007,71 +958,64 @@
       <c r="D17" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6">
         <v>0.15</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
         <v>0.05</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="6" t="s">
+      <c r="D20" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6">
         <v>1.76</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>24</v>
       </c>
@@ -1079,24 +1023,20 @@
         <v>9</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7">
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="6">
         <v>1.7819999999999999E-2</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>0.24518000000000001</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>0.24814</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>11</v>
@@ -1105,18 +1045,17 @@
       <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="6">
         <v>-5.1999999999999998E-2</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="6">
         <v>0.49859999999999999</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="6">
         <v>0.32373000000000002</v>
       </c>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>10</v>
@@ -1125,62 +1064,59 @@
       <c r="D23" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
         <v>5.2778799999999997</v>
       </c>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="18">
         <v>0</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="18">
         <v>0.3</v>
       </c>
-      <c r="H24" s="20">
+      <c r="H24" s="18">
         <v>0.45</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="18">
         <v>0</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="18">
         <v>-0.3</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="18">
         <v>0.45</v>
       </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
@@ -1189,14 +1125,13 @@
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17">
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6">
         <v>1.5</v>
       </c>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
@@ -1205,56 +1140,53 @@
       <c r="D27" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6">
         <v>2.1</v>
       </c>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="18">
         <v>0.05</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="18">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="18">
         <v>0.47499999999999998</v>
       </c>
-      <c r="K28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16" t="s">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="18">
         <v>0.05</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="18">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="18">
         <v>0.32500000000000001</v>
       </c>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
@@ -1263,14 +1195,13 @@
       <c r="D30" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6">
         <v>1.5</v>
       </c>
-      <c r="K30" s="6"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
@@ -1279,46 +1210,46 @@
       <c r="D31" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17">
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6">
         <v>2.1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22">
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20">
         <v>0.1</v>
       </c>
-      <c r="J32" s="14" t="s">
+      <c r="J32" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="22">
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20">
         <v>-0.15</v>
       </c>
     </row>
@@ -1327,30 +1258,30 @@
       <c r="B34" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="22">
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="20">
         <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="22">
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="20">
         <v>-0.15</v>
       </c>
     </row>
@@ -1365,14 +1296,14 @@
       <c r="D36" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="6">
         <f>-0.008-0.01</f>
         <v>-1.8000000000000002E-2</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="6">
         <v>0.58015000000000005</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="6">
         <f>0.15789+0.02</f>
         <v>0.17788999999999999</v>
       </c>
@@ -1386,13 +1317,13 @@
       <c r="D37" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="6">
         <v>0</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G37" s="6">
         <v>0.35</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="6">
         <v>0.45</v>
       </c>
     </row>
@@ -1405,9 +1336,9 @@
       <c r="D38" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="19">
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="17">
         <v>5.8304799999999997E-2</v>
       </c>
     </row>
@@ -1422,13 +1353,13 @@
       <c r="D39" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="6">
         <v>0</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="6">
         <v>0.3</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="6">
         <v>0.4</v>
       </c>
     </row>
@@ -1441,64 +1372,56 @@
       <c r="D40" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="19">
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="17">
         <v>0.22806699999999999</v>
       </c>
     </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A26:B27">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+  <conditionalFormatting sqref="A24:A27">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:B35">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:B28 A29">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:A27">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B31">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C33">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34:C35">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C28">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
+  <conditionalFormatting sqref="A24:C35">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:C31">
+  <conditionalFormatting sqref="A41:A42">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>

--- a/Libraries/Vehicle/Linkage/Decoupled_DW/sm_car_data_Linkage_DW_Decoupled_noSteer.xlsx
+++ b/Libraries/Vehicle/Linkage/Decoupled_DW/sm_car_data_Linkage_DW_Decoupled_noSteer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\Decoupled_DW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392DAACC-C567-4315-BCF1-BBEF7150C709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7584AB-9575-4E15-B302-C34906FAD3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="774" xr2:uid="{48D06346-6904-4E22-A3AD-44252B9780B0}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="774" xr2:uid="{48D06346-6904-4E22-A3AD-44252B9780B0}"/>
   </bookViews>
   <sheets>
     <sheet name="DWDecoupled_Achilles_r" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
   <si>
     <t>Units</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Shock</t>
   </si>
   <si>
-    <t>Also appears in Springs</t>
-  </si>
-  <si>
     <t>mPiston</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>xMax</t>
   </si>
   <si>
-    <t>Also appears in Dampers</t>
-  </si>
-  <si>
     <t>xMin</t>
   </si>
   <si>
@@ -187,6 +181,15 @@
   </si>
   <si>
     <t>Lower Arm to Subframe</t>
+  </si>
+  <si>
+    <t>Must be consistent with values in Spring, Damper</t>
+  </si>
+  <si>
+    <t>Must be consistent with value in Dampers</t>
+  </si>
+  <si>
+    <t>Must  be consistent with steering rack outboard point</t>
   </si>
 </sst>
 </file>
@@ -255,7 +258,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
+        <fgColor rgb="FFFF99CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -305,19 +308,56 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -341,6 +381,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -654,8 +699,8 @@
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +710,7 @@
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -711,7 +756,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -725,15 +770,15 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" t="s">
@@ -752,7 +797,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
@@ -805,10 +850,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" t="s">
@@ -827,7 +872,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
@@ -909,13 +954,13 @@
       <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="22">
         <v>0</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="23">
         <v>0.61899999999999999</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="22">
         <v>0.23322999999999999</v>
       </c>
     </row>
@@ -1026,14 +1071,20 @@
       <c r="D21" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="6">
+      <c r="E21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="21">
         <v>1.7819999999999999E-2</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="21">
         <v>0.24518000000000001</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="21">
         <v>0.24814</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1075,52 +1126,60 @@
         <v>25</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="18">
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="16">
         <v>0</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="16">
         <v>0.3</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="16">
         <v>0.45</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="18">
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="16">
         <v>0</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="16">
         <v>-0.3</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="16">
         <v>0.45</v>
       </c>
-      <c r="J25" s="12"/>
+      <c r="J25" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -1135,7 +1194,7 @@
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -1149,48 +1208,60 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="18">
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="16">
         <v>0.05</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="16">
         <v>0.27500000000000002</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="16">
         <v>0.47499999999999998</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="18">
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="16">
         <v>0.05</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="16">
         <v>-0.27500000000000002</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="16">
         <v>0.32500000000000001</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -1205,7 +1276,7 @@
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -1218,79 +1289,100 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>30</v>
-      </c>
       <c r="D32" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20">
+      <c r="E32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18">
         <v>0.1</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20">
+      <c r="E33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18">
         <v>-0.15</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J33" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20">
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J34" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20">
+      <c r="E35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="18">
         <v>-0.15</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J35" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" t="s">
@@ -1308,10 +1400,10 @@
         <v>0.17788999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" t="s">
@@ -1327,7 +1419,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
         <v>10</v>
@@ -1338,16 +1430,16 @@
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="17">
+      <c r="H38" s="22">
         <v>5.8304799999999997E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" t="s">
@@ -1363,7 +1455,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -1374,13 +1466,13 @@
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="17">
+      <c r="H40" s="22">
         <v>0.22806699999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>8</v>
@@ -1390,13 +1482,13 @@
       <c r="E41" s="8"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>8</v>
@@ -1406,22 +1498,42 @@
       <c r="E42" s="8"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="21" t="s">
-        <v>49</v>
+      <c r="H42" s="19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A24:A27">
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:A42">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:C35">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A41:A42">
+  <conditionalFormatting sqref="E24:E25">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E29">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:J35">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E35">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
